--- a/Model charts.xlsx
+++ b/Model charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiann\Documents\GitHub\PricingCompetitionAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF94AE-0C16-4B07-B3F2-85713D6C3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CAE58F-D221-4337-8BBA-FDE0042CDB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="699" activeTab="1" xr2:uid="{82970429-080B-475A-BF21-36042436C80F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="699" activeTab="3" xr2:uid="{82970429-080B-475A-BF21-36042436C80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Exploratory market share" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>RMSE</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Factors</t>
+  </si>
+  <si>
+    <t>Market Share 50%</t>
   </si>
 </sst>
 </file>
@@ -708,6 +711,14 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Figure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 1: </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
               <a:t>Market Share vs Expected Average Profit</a:t>
@@ -2813,124 +2824,124 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>-92435.990200005472</c:v>
+                  <c:v>796347.57439994812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-73400.145200006664</c:v>
+                  <c:v>221136.23439979553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-54364.300200007856</c:v>
+                  <c:v>-354075.10560011864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-35328.455200001597</c:v>
+                  <c:v>-929286.44560003281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16292.610200002789</c:v>
+                  <c:v>-1504497.785599947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2743.234800003469</c:v>
+                  <c:v>-2079709.1255998611</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8924.8205000013113</c:v>
+                  <c:v>-2465730.6820001602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9845.9794999808073</c:v>
+                  <c:v>-2484501.4820001125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-28616.779499992728</c:v>
+                  <c:v>-2503272.2820000648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-47387.579499989748</c:v>
+                  <c:v>-2522043.0820000172</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-66158.379499986768</c:v>
+                  <c:v>-2540813.8819999695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-84929.179499998689</c:v>
+                  <c:v>-2559584.6820001602</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-103699.97949998081</c:v>
+                  <c:v>-2578355.4820001125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-122470.77949999273</c:v>
+                  <c:v>-2597126.2820000648</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-141241.57949997485</c:v>
+                  <c:v>-2615897.0820000172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-160012.37949998677</c:v>
+                  <c:v>-2634667.8819999695</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-178783.17949998379</c:v>
+                  <c:v>-2653438.6820001602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-197553.97949998081</c:v>
+                  <c:v>-2672209.4820001125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-216324.77949997783</c:v>
+                  <c:v>-2690980.2820000648</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-235095.57949997485</c:v>
+                  <c:v>-2709751.0820000172</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-253866.37949998677</c:v>
+                  <c:v>-2728521.8819999695</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-272637.17949996889</c:v>
+                  <c:v>-2747292.6820001602</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-291407.97949998081</c:v>
+                  <c:v>-2766063.4820001125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-310178.77949997783</c:v>
+                  <c:v>-2784834.2820000648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-328949.57949997485</c:v>
+                  <c:v>-2803605.0820000172</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-347720.37949997187</c:v>
+                  <c:v>-2822375.8819999695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-360109.10750000179</c:v>
+                  <c:v>-2834764.6100001335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3170,7 +3181,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>RMSE vs Expected Avarage</a:t>
+              <a:t>Figure 2: RMSE vs Expected Avarage</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -4715,7 +4726,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Market Share 75%</c:v>
+                  <c:v>Market Share 50%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4874,124 +4885,124 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>-753651.67560005188</c:v>
+                  <c:v>664675.93519997597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1328863.0156002045</c:v>
+                  <c:v>177501.21519994736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1904074.3556001186</c:v>
+                  <c:v>-309673.50480008125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2479285.6956000328</c:v>
+                  <c:v>-796848.22480010986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3054497.035599947</c:v>
+                  <c:v>-1284022.9448001385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3629708.3755998611</c:v>
+                  <c:v>-1771197.6647999287</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4015729.9320001602</c:v>
+                  <c:v>-2099115.0520000458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4034500.7320001125</c:v>
+                  <c:v>-2117885.8519999981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4053271.5320000648</c:v>
+                  <c:v>-2136656.6519999504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4072042.3320000172</c:v>
+                  <c:v>-2155427.4519999027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4090813.1319999695</c:v>
+                  <c:v>-2174198.251999855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4109583.9320001602</c:v>
+                  <c:v>-2192969.0520000458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4128354.7320001125</c:v>
+                  <c:v>-2211739.8519999981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4147125.5320000648</c:v>
+                  <c:v>-2230510.6519999504</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4165896.3320000172</c:v>
+                  <c:v>-2249281.4519999027</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4184667.1319999695</c:v>
+                  <c:v>-2268052.251999855</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4203437.9320001602</c:v>
+                  <c:v>-2286823.0520000458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4222208.7320001125</c:v>
+                  <c:v>-2305593.8519999981</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4240979.5320000648</c:v>
+                  <c:v>-2324364.6519999504</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4259750.3320000172</c:v>
+                  <c:v>-2343135.4519999027</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4278521.1319999695</c:v>
+                  <c:v>-2361906.251999855</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4297291.9320001602</c:v>
+                  <c:v>-2380677.0520000458</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4316062.7320001125</c:v>
+                  <c:v>-2399447.8519999981</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4334833.5320000648</c:v>
+                  <c:v>-2418218.6519999504</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-4353604.3320000172</c:v>
+                  <c:v>-2436989.4519999027</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4372375.1319999695</c:v>
+                  <c:v>-2455760.251999855</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-4384763.8600001335</c:v>
+                  <c:v>-2468148.9800000191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5000,6 +5011,305 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7BDF-4D9E-9D5E-E333A577ACB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart market share RMSE'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Market Share 75%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Chart market share RMSE'!$B$4:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>499.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499.36799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>499.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>499.76799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>499.96799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.16799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500.36799999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500.56799999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.76799999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500.9679999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501.16799999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>501.36799999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>501.56799999999987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>501.76799999999986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>501.96799999999985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>502.16799999999984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>502.36799999999982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>502.56799999999981</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>502.7679999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>502.96799999999979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>503.16799999999978</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>503.36799999999977</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>503.56799999999976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>503.76799999999974</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>503.96799999999973</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>504.16799999999972</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>504.36799999999971</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>504.5679999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>504.76799999999969</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>504.96799999999968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>505.16799999999967</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>505.36799999999965</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>505.56799999999964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>505.76799999999963</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>505.96799999999962</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>506.16799999999961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>506.3679999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>506.56799999999959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>506.76799999999957</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>506.96799999999956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Chart market share RMSE'!$I$4:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-753651.67560005188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1328863.0156002045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1904074.3556001186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2479285.6956000328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3054497.035599947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3629708.3755998611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4015729.9320001602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4034500.7320001125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4053271.5320000648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4072042.3320000172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4090813.1319999695</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4109583.9320001602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4128354.7320001125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4147125.5320000648</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4165896.3320000172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4184667.1319999695</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4203437.9320001602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4222208.7320001125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4240979.5320000648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4259750.3320000172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4278521.1319999695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4297291.9320001602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4316062.7320001125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4334833.5320000648</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4353604.3320000172</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4372375.1319999695</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4384763.8600001335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0721-4536-9B7B-2764503207C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8027,7 +8337,7 @@
   <dimension ref="B1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D42"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9449,8 +9759,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10364,11 +10674,11 @@
         <v>499.16800000000001</v>
       </c>
       <c r="C3" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E3:I3)</f>
-        <v>-92435.990200005472</v>
+        <f t="shared" ref="D3:D42" si="0">$D$1+SUMPRODUCT($E$1:$I$1,E3:I3)</f>
+        <v>796347.57439994812</v>
       </c>
       <c r="E3">
         <f>IF(B3 &lt; 500.3, 500.3, IF(B3 &gt; 504.3, 504.3, B3))</f>
@@ -10379,16 +10689,16 @@
         <v>499.16800000000001</v>
       </c>
       <c r="G3">
-        <f>IF(C3 &gt; 0.7, 0.7, C3)</f>
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" ref="G3:G42" si="1">IF(C3 &gt; 0.7, 0.7, C3)</f>
+        <v>0.7</v>
       </c>
       <c r="H3">
         <f>IF(C3 &lt; 0.7, 0.7, C3)</f>
         <v>0.7</v>
       </c>
       <c r="I3">
-        <f>F3*G3</f>
-        <v>12.479200000000001</v>
+        <f t="shared" ref="I3:I42" si="2">F3*G3</f>
+        <v>349.41759999999999</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -10398,1323 +10708,1323 @@
       </c>
       <c r="C4" s="5">
         <f>+C3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="D4" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E4:I4)</f>
-        <v>-73400.145200006664</v>
+        <f t="shared" si="0"/>
+        <v>221136.23439979553</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E42" si="0">IF(B4 &lt; 500.3, 500.3, IF(B4 &gt; 504.3, 504.3, B4))</f>
+        <f t="shared" ref="E4:E42" si="3">IF(B4 &lt; 500.3, 500.3, IF(B4 &gt; 504.3, 504.3, B4))</f>
         <v>500.3</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F42" si="1">IF(B4 &gt; 500.3, 500.3, B4)</f>
+        <f t="shared" ref="F4:F42" si="4">IF(B4 &gt; 500.3, 500.3, B4)</f>
         <v>499.36799999999999</v>
       </c>
       <c r="G4">
-        <f>IF(C4 &gt; 0.7, 0.7, C4)</f>
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H42" si="2">IF(C4 &lt; 0.7, 0.7, C4)</f>
+        <f t="shared" ref="H4:H42" si="5">IF(C4 &lt; 0.7, 0.7, C4)</f>
         <v>0.7</v>
       </c>
       <c r="I4">
-        <f>F4*G4</f>
-        <v>12.484200000000001</v>
+        <f t="shared" si="2"/>
+        <v>349.55759999999998</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f t="shared" ref="B5:B42" si="3">+B4+0.2</f>
+        <f t="shared" ref="B5:B42" si="6">+B4+0.2</f>
         <v>499.56799999999998</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C42" si="4">+C4</f>
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" ref="C5:C42" si="7">+C4</f>
+        <v>0.7</v>
       </c>
       <c r="D5" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E5:I5)</f>
-        <v>-54364.300200007856</v>
+        <f t="shared" si="0"/>
+        <v>-354075.10560011864</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>500.3</v>
       </c>
       <c r="F5">
+        <f t="shared" si="4"/>
+        <v>499.56799999999998</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>499.56799999999998</v>
-      </c>
-      <c r="G5">
-        <f>IF(C5 &gt; 0.7, 0.7, C5)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H5">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I5">
-        <f>F5*G5</f>
-        <v>12.4892</v>
+        <v>349.69759999999997</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
+        <f t="shared" si="6"/>
+        <v>499.76799999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>-929286.44560003281</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="3"/>
+        <v>500.3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
         <v>499.76799999999997</v>
       </c>
-      <c r="C6" s="5">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E6:I6)</f>
-        <v>-35328.455200001597</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>500.3</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>499.76799999999997</v>
-      </c>
-      <c r="G6">
-        <f>IF(C6 &gt; 0.7, 0.7, C6)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H6">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I6">
-        <f>F6*G6</f>
-        <v>12.494199999999999</v>
+        <v>349.83759999999995</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
+        <f t="shared" si="6"/>
+        <v>499.96799999999996</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>-1504497.785599947</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="3"/>
+        <v>500.3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
         <v>499.96799999999996</v>
       </c>
-      <c r="C7" s="5">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E7:I7)</f>
-        <v>-16292.610200002789</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>500.3</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>499.96799999999996</v>
-      </c>
-      <c r="G7">
-        <f>IF(C7 &gt; 0.7, 0.7, C7)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H7">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I7">
-        <f>F7*G7</f>
-        <v>12.4992</v>
+        <v>349.97759999999994</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
+        <f t="shared" si="6"/>
+        <v>500.16799999999995</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>-2079709.1255998611</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="3"/>
+        <v>500.3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
         <v>500.16799999999995</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D8" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E8:I8)</f>
-        <v>2743.234800003469</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>500.3</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>500.16799999999995</v>
-      </c>
-      <c r="G8">
-        <f>IF(C8 &gt; 0.7, 0.7, C8)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H8">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I8">
-        <f>F8*G8</f>
-        <v>12.504199999999999</v>
+        <v>350.11759999999992</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
+        <f t="shared" si="6"/>
+        <v>500.36799999999994</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>-2465730.6820001602</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="3"/>
         <v>500.36799999999994</v>
       </c>
-      <c r="C9" s="5">
+      <c r="F9">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E9:I9)</f>
-        <v>8924.8205000013113</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>500.36799999999994</v>
-      </c>
-      <c r="F9">
+        <v>500.3</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G9">
-        <f>IF(C9 &gt; 0.7, 0.7, C9)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H9">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I9">
-        <f>F9*G9</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
+        <f t="shared" si="6"/>
+        <v>500.56799999999993</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>-2484501.4820001125</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="3"/>
         <v>500.56799999999993</v>
       </c>
-      <c r="C10" s="5">
+      <c r="F10">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D10" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E10:I10)</f>
-        <v>-9845.9794999808073</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>500.56799999999993</v>
-      </c>
-      <c r="F10">
+        <v>500.3</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G10">
-        <f>IF(C10 &gt; 0.7, 0.7, C10)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H10">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I10">
-        <f>F10*G10</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
+        <f t="shared" si="6"/>
+        <v>500.76799999999992</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>-2503272.2820000648</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="3"/>
         <v>500.76799999999992</v>
       </c>
-      <c r="C11" s="5">
+      <c r="F11">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D11" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E11:I11)</f>
-        <v>-28616.779499992728</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>500.76799999999992</v>
-      </c>
-      <c r="F11">
+        <v>500.3</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G11">
-        <f>IF(C11 &gt; 0.7, 0.7, C11)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I11">
-        <f>F11*G11</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
+        <f t="shared" si="6"/>
+        <v>500.9679999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>-2522043.0820000172</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="3"/>
         <v>500.9679999999999</v>
       </c>
-      <c r="C12" s="5">
+      <c r="F12">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D12" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E12:I12)</f>
-        <v>-47387.579499989748</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>500.9679999999999</v>
-      </c>
-      <c r="F12">
+        <v>500.3</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G12">
-        <f>IF(C12 &gt; 0.7, 0.7, C12)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I12">
-        <f>F12*G12</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
+        <f t="shared" si="6"/>
+        <v>501.16799999999989</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>-2540813.8819999695</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="3"/>
         <v>501.16799999999989</v>
       </c>
-      <c r="C13" s="5">
+      <c r="F13">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D13" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E13:I13)</f>
-        <v>-66158.379499986768</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>501.16799999999989</v>
-      </c>
-      <c r="F13">
+        <v>500.3</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G13">
-        <f>IF(C13 &gt; 0.7, 0.7, C13)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I13">
-        <f>F13*G13</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
+        <f t="shared" si="6"/>
+        <v>501.36799999999988</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>-2559584.6820001602</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="3"/>
         <v>501.36799999999988</v>
       </c>
-      <c r="C14" s="5">
+      <c r="F14">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D14" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E14:I14)</f>
-        <v>-84929.179499998689</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>501.36799999999988</v>
-      </c>
-      <c r="F14">
+        <v>500.3</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G14">
-        <f>IF(C14 &gt; 0.7, 0.7, C14)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I14">
-        <f>F14*G14</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
+        <f t="shared" si="6"/>
+        <v>501.56799999999987</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>-2578355.4820001125</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="3"/>
         <v>501.56799999999987</v>
       </c>
-      <c r="C15" s="5">
+      <c r="F15">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D15" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E15:I15)</f>
-        <v>-103699.97949998081</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>501.56799999999987</v>
-      </c>
-      <c r="F15">
+        <v>500.3</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G15">
-        <f>IF(C15 &gt; 0.7, 0.7, C15)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I15">
-        <f>F15*G15</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
+        <f t="shared" si="6"/>
+        <v>501.76799999999986</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>-2597126.2820000648</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="3"/>
         <v>501.76799999999986</v>
       </c>
-      <c r="C16" s="5">
+      <c r="F16">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D16" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E16:I16)</f>
-        <v>-122470.77949999273</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>501.76799999999986</v>
-      </c>
-      <c r="F16">
+        <v>500.3</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G16">
-        <f>IF(C16 &gt; 0.7, 0.7, C16)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H16">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I16">
-        <f>F16*G16</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
+        <f t="shared" si="6"/>
+        <v>501.96799999999985</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>-2615897.0820000172</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="3"/>
         <v>501.96799999999985</v>
       </c>
-      <c r="C17" s="5">
+      <c r="F17">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D17" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E17:I17)</f>
-        <v>-141241.57949997485</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>501.96799999999985</v>
-      </c>
-      <c r="F17">
+        <v>500.3</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G17">
-        <f>IF(C17 &gt; 0.7, 0.7, C17)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H17">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I17">
-        <f>F17*G17</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
+        <f t="shared" si="6"/>
+        <v>502.16799999999984</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>-2634667.8819999695</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="3"/>
         <v>502.16799999999984</v>
       </c>
-      <c r="C18" s="5">
+      <c r="F18">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D18" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E18:I18)</f>
-        <v>-160012.37949998677</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>502.16799999999984</v>
-      </c>
-      <c r="F18">
+        <v>500.3</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G18">
-        <f>IF(C18 &gt; 0.7, 0.7, C18)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H18">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I18">
-        <f>F18*G18</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
+        <f t="shared" si="6"/>
+        <v>502.36799999999982</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>-2653438.6820001602</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="3"/>
         <v>502.36799999999982</v>
       </c>
-      <c r="C19" s="5">
+      <c r="F19">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D19" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E19:I19)</f>
-        <v>-178783.17949998379</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>502.36799999999982</v>
-      </c>
-      <c r="F19">
+        <v>500.3</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G19">
-        <f>IF(C19 &gt; 0.7, 0.7, C19)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H19">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I19">
-        <f>F19*G19</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
+        <f t="shared" si="6"/>
+        <v>502.56799999999981</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>-2672209.4820001125</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="3"/>
         <v>502.56799999999981</v>
       </c>
-      <c r="C20" s="5">
+      <c r="F20">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D20" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E20:I20)</f>
-        <v>-197553.97949998081</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>502.56799999999981</v>
-      </c>
-      <c r="F20">
+        <v>500.3</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G20">
-        <f>IF(C20 &gt; 0.7, 0.7, C20)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H20">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I20">
-        <f>F20*G20</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
+        <f t="shared" si="6"/>
+        <v>502.7679999999998</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>-2690980.2820000648</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="3"/>
         <v>502.7679999999998</v>
       </c>
-      <c r="C21" s="5">
+      <c r="F21">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D21" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E21:I21)</f>
-        <v>-216324.77949997783</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>502.7679999999998</v>
-      </c>
-      <c r="F21">
+        <v>500.3</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G21">
-        <f>IF(C21 &gt; 0.7, 0.7, C21)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H21">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I21">
-        <f>F21*G21</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
+        <f t="shared" si="6"/>
+        <v>502.96799999999979</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>-2709751.0820000172</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="3"/>
         <v>502.96799999999979</v>
       </c>
-      <c r="C22" s="5">
+      <c r="F22">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D22" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E22:I22)</f>
-        <v>-235095.57949997485</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>502.96799999999979</v>
-      </c>
-      <c r="F22">
+        <v>500.3</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G22">
-        <f>IF(C22 &gt; 0.7, 0.7, C22)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H22">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I22">
-        <f>F22*G22</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
+        <f t="shared" si="6"/>
+        <v>503.16799999999978</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>-2728521.8819999695</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="3"/>
         <v>503.16799999999978</v>
       </c>
-      <c r="C23" s="5">
+      <c r="F23">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D23" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E23:I23)</f>
-        <v>-253866.37949998677</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>503.16799999999978</v>
-      </c>
-      <c r="F23">
+        <v>500.3</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G23">
-        <f>IF(C23 &gt; 0.7, 0.7, C23)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H23">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I23">
-        <f>F23*G23</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
+        <f t="shared" si="6"/>
+        <v>503.36799999999977</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>-2747292.6820001602</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="3"/>
         <v>503.36799999999977</v>
       </c>
-      <c r="C24" s="5">
+      <c r="F24">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D24" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E24:I24)</f>
-        <v>-272637.17949996889</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>503.36799999999977</v>
-      </c>
-      <c r="F24">
+        <v>500.3</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G24">
-        <f>IF(C24 &gt; 0.7, 0.7, C24)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H24">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I24">
-        <f>F24*G24</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
+        <f t="shared" si="6"/>
+        <v>503.56799999999976</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>-2766063.4820001125</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="3"/>
         <v>503.56799999999976</v>
       </c>
-      <c r="C25" s="5">
+      <c r="F25">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D25" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E25:I25)</f>
-        <v>-291407.97949998081</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>503.56799999999976</v>
-      </c>
-      <c r="F25">
+        <v>500.3</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G25">
-        <f>IF(C25 &gt; 0.7, 0.7, C25)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H25">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I25">
-        <f>F25*G25</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
+        <f t="shared" si="6"/>
+        <v>503.76799999999974</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>-2784834.2820000648</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="3"/>
         <v>503.76799999999974</v>
       </c>
-      <c r="C26" s="5">
+      <c r="F26">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D26" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E26:I26)</f>
-        <v>-310178.77949997783</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>503.76799999999974</v>
-      </c>
-      <c r="F26">
+        <v>500.3</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G26">
-        <f>IF(C26 &gt; 0.7, 0.7, C26)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H26">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I26">
-        <f>F26*G26</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
+        <f t="shared" si="6"/>
+        <v>503.96799999999973</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>-2803605.0820000172</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="3"/>
         <v>503.96799999999973</v>
       </c>
-      <c r="C27" s="5">
+      <c r="F27">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D27" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E27:I27)</f>
-        <v>-328949.57949997485</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>503.96799999999973</v>
-      </c>
-      <c r="F27">
+        <v>500.3</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G27">
-        <f>IF(C27 &gt; 0.7, 0.7, C27)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H27">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I27">
-        <f>F27*G27</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
+        <f t="shared" si="6"/>
+        <v>504.16799999999972</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>-2822375.8819999695</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="3"/>
         <v>504.16799999999972</v>
       </c>
-      <c r="C28" s="5">
+      <c r="F28">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D28" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E28:I28)</f>
-        <v>-347720.37949997187</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>504.16799999999972</v>
-      </c>
-      <c r="F28">
+        <v>500.3</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G28">
-        <f>IF(C28 &gt; 0.7, 0.7, C28)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H28">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I28">
-        <f>F28*G28</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
+        <f t="shared" si="6"/>
+        <v>504.36799999999971</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="3"/>
-        <v>504.36799999999971</v>
-      </c>
-      <c r="C29" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D29" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E29:I29)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F29">
+        <v>500.3</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G29">
-        <f>IF(C29 &gt; 0.7, 0.7, C29)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H29">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I29">
-        <f>F29*G29</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
+        <f t="shared" si="6"/>
+        <v>504.5679999999997</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="3"/>
-        <v>504.5679999999997</v>
-      </c>
-      <c r="C30" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D30" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E30:I30)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F30">
+        <v>500.3</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G30">
-        <f>IF(C30 &gt; 0.7, 0.7, C30)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H30">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I30">
-        <f>F30*G30</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
+        <f t="shared" si="6"/>
+        <v>504.76799999999969</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="3"/>
-        <v>504.76799999999969</v>
-      </c>
-      <c r="C31" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D31" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E31:I31)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F31">
+        <v>500.3</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G31">
-        <f>IF(C31 &gt; 0.7, 0.7, C31)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H31">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I31">
-        <f>F31*G31</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
+        <f t="shared" si="6"/>
+        <v>504.96799999999968</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="3"/>
-        <v>504.96799999999968</v>
-      </c>
-      <c r="C32" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D32" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E32:I32)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F32">
+        <v>500.3</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G32">
-        <f>IF(C32 &gt; 0.7, 0.7, C32)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H32">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I32">
-        <f>F32*G32</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
+        <f t="shared" si="6"/>
+        <v>505.16799999999967</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="3"/>
-        <v>505.16799999999967</v>
-      </c>
-      <c r="C33" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D33" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E33:I33)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F33">
+        <v>500.3</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G33">
-        <f>IF(C33 &gt; 0.7, 0.7, C33)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H33">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I33">
-        <f>F33*G33</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
+        <f t="shared" si="6"/>
+        <v>505.36799999999965</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="3"/>
-        <v>505.36799999999965</v>
-      </c>
-      <c r="C34" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D34" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E34:I34)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F34">
+        <v>500.3</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G34">
-        <f>IF(C34 &gt; 0.7, 0.7, C34)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H34">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I34">
-        <f>F34*G34</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
+        <f t="shared" si="6"/>
+        <v>505.56799999999964</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="3"/>
-        <v>505.56799999999964</v>
-      </c>
-      <c r="C35" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D35" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E35:I35)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F35">
+        <v>500.3</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G35">
-        <f>IF(C35 &gt; 0.7, 0.7, C35)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H35">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I35">
-        <f>F35*G35</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
+        <f t="shared" si="6"/>
+        <v>505.76799999999963</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="3"/>
-        <v>505.76799999999963</v>
-      </c>
-      <c r="C36" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D36" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E36:I36)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F36">
+        <v>500.3</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G36">
-        <f>IF(C36 &gt; 0.7, 0.7, C36)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H36">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I36">
-        <f>F36*G36</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
+        <f t="shared" si="6"/>
+        <v>505.96799999999962</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="3"/>
-        <v>505.96799999999962</v>
-      </c>
-      <c r="C37" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D37" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E37:I37)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F37">
+        <v>500.3</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G37">
-        <f>IF(C37 &gt; 0.7, 0.7, C37)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H37">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I37">
-        <f>F37*G37</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
+        <f t="shared" si="6"/>
+        <v>506.16799999999961</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="3"/>
-        <v>506.16799999999961</v>
-      </c>
-      <c r="C38" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D38" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E38:I38)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F38">
+        <v>500.3</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G38">
-        <f>IF(C38 &gt; 0.7, 0.7, C38)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H38">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I38">
-        <f>F38*G38</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
+        <f t="shared" si="6"/>
+        <v>506.3679999999996</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="3"/>
-        <v>506.3679999999996</v>
-      </c>
-      <c r="C39" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D39" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E39:I39)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F39">
+        <v>500.3</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G39">
-        <f>IF(C39 &gt; 0.7, 0.7, C39)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H39">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I39">
-        <f>F39*G39</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
+        <f t="shared" si="6"/>
+        <v>506.56799999999959</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="3"/>
-        <v>506.56799999999959</v>
-      </c>
-      <c r="C40" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D40" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E40:I40)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F40">
+        <v>500.3</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G40">
-        <f>IF(C40 &gt; 0.7, 0.7, C40)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H40">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I40">
-        <f>F40*G40</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
+        <f t="shared" si="6"/>
+        <v>506.76799999999957</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="3"/>
-        <v>506.76799999999957</v>
-      </c>
-      <c r="C41" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D41" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E41:I41)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F41">
+        <v>500.3</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G41">
-        <f>IF(C41 &gt; 0.7, 0.7, C41)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H41">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I41">
-        <f>F41*G41</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
+        <f t="shared" si="6"/>
+        <v>506.96799999999956</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="0"/>
+        <v>-2834764.6100001335</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="3"/>
-        <v>506.96799999999956</v>
-      </c>
-      <c r="C42" s="5">
+        <v>504.3</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D42" s="7">
-        <f>$D$1+SUMPRODUCT($E$1:$I$1,E42:I42)</f>
-        <v>-360109.10750000179</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>504.3</v>
-      </c>
-      <c r="F42">
+        <v>500.3</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="1"/>
-        <v>500.3</v>
-      </c>
-      <c r="G42">
-        <f>IF(C42 &gt; 0.7, 0.7, C42)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
       </c>
       <c r="H42">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="I42">
-        <f>F42*G42</f>
-        <v>12.5075</v>
+        <v>350.21</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -11735,10 +12045,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC0B65D-F5B3-4944-9286-BE1BED66F764}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:H43"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11746,10 +12056,10 @@
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="4">
         <v>2.5</v>
       </c>
@@ -11766,10 +12076,13 @@
         <v>50</v>
       </c>
       <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -11789,16 +12102,18 @@
         <f t="shared" si="0"/>
         <v>Market Share 20%</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>Market Share 50%</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3" si="1">"Market Share "&amp;I2&amp;"%"</f>
         <v>Market Share 75%</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>499.16800000000001</v>
       </c>
@@ -11818,10 +12133,13 @@
         <v>533004.29600000381</v>
       </c>
       <c r="H4" s="1">
+        <v>664675.93519997597</v>
+      </c>
+      <c r="I4" s="1">
         <v>-753651.67560005188</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>+B4+0.2</f>
         <v>499.36799999999999</v>
@@ -11842,12 +12160,15 @@
         <v>133866.19599986076</v>
       </c>
       <c r="H5" s="1">
+        <v>177501.21519994736</v>
+      </c>
+      <c r="I5" s="1">
         <v>-1328863.0156002045</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" ref="B6:B43" si="1">+B5+0.2</f>
+        <f t="shared" ref="B6:B43" si="2">+B5+0.2</f>
         <v>499.56799999999998</v>
       </c>
       <c r="C6" s="1">
@@ -11866,12 +12187,15 @@
         <v>-265271.90400004387</v>
       </c>
       <c r="H6" s="1">
+        <v>-309673.50480008125</v>
+      </c>
+      <c r="I6" s="1">
         <v>-1904074.3556001186</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>499.76799999999997</v>
       </c>
       <c r="C7" s="1">
@@ -11890,12 +12214,15 @@
         <v>-664410.0039999485</v>
       </c>
       <c r="H7" s="1">
+        <v>-796848.22480010986</v>
+      </c>
+      <c r="I7" s="1">
         <v>-2479285.6956000328</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>499.96799999999996</v>
       </c>
       <c r="C8" s="1">
@@ -11914,12 +12241,15 @@
         <v>-1063548.1040000916</v>
       </c>
       <c r="H8" s="1">
+        <v>-1284022.9448001385</v>
+      </c>
+      <c r="I8" s="1">
         <v>-3054497.035599947</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500.16799999999995</v>
       </c>
       <c r="C9" s="1">
@@ -11938,12 +12268,15 @@
         <v>-1462686.2039999962</v>
       </c>
       <c r="H9" s="1">
+        <v>-1771197.6647999287</v>
+      </c>
+      <c r="I9" s="1">
         <v>-3629708.3755998611</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500.36799999999994</v>
       </c>
       <c r="C10" s="1">
@@ -11962,12 +12295,15 @@
         <v>-1732499.4220001698</v>
       </c>
       <c r="H10" s="1">
+        <v>-2099115.0520000458</v>
+      </c>
+      <c r="I10" s="1">
         <v>-4015729.9320001602</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500.56799999999993</v>
       </c>
       <c r="C11" s="1">
@@ -11986,12 +12322,15 @@
         <v>-1751270.2220001221</v>
       </c>
       <c r="H11" s="1">
+        <v>-2117885.8519999981</v>
+      </c>
+      <c r="I11" s="1">
         <v>-4034500.7320001125</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500.76799999999992</v>
       </c>
       <c r="C12" s="1">
@@ -12010,12 +12349,15 @@
         <v>-1770041.0220000744</v>
       </c>
       <c r="H12" s="1">
+        <v>-2136656.6519999504</v>
+      </c>
+      <c r="I12" s="1">
         <v>-4053271.5320000648</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500.9679999999999</v>
       </c>
       <c r="C13" s="1">
@@ -12034,12 +12376,15 @@
         <v>-1788811.8220000267</v>
       </c>
       <c r="H13" s="1">
+        <v>-2155427.4519999027</v>
+      </c>
+      <c r="I13" s="1">
         <v>-4072042.3320000172</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501.16799999999989</v>
       </c>
       <c r="C14" s="1">
@@ -12058,12 +12403,15 @@
         <v>-1807582.621999979</v>
       </c>
       <c r="H14" s="1">
+        <v>-2174198.251999855</v>
+      </c>
+      <c r="I14" s="1">
         <v>-4090813.1319999695</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501.36799999999988</v>
       </c>
       <c r="C15" s="1">
@@ -12082,12 +12430,15 @@
         <v>-1826353.4220001698</v>
       </c>
       <c r="H15" s="1">
+        <v>-2192969.0520000458</v>
+      </c>
+      <c r="I15" s="1">
         <v>-4109583.9320001602</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501.56799999999987</v>
       </c>
       <c r="C16" s="1">
@@ -12106,12 +12457,15 @@
         <v>-1845124.2220001221</v>
       </c>
       <c r="H16" s="1">
+        <v>-2211739.8519999981</v>
+      </c>
+      <c r="I16" s="1">
         <v>-4128354.7320001125</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501.76799999999986</v>
       </c>
       <c r="C17" s="1">
@@ -12130,12 +12484,15 @@
         <v>-1863895.0220000744</v>
       </c>
       <c r="H17" s="1">
+        <v>-2230510.6519999504</v>
+      </c>
+      <c r="I17" s="1">
         <v>-4147125.5320000648</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501.96799999999985</v>
       </c>
       <c r="C18" s="1">
@@ -12154,12 +12511,15 @@
         <v>-1882665.8220000267</v>
       </c>
       <c r="H18" s="1">
+        <v>-2249281.4519999027</v>
+      </c>
+      <c r="I18" s="1">
         <v>-4165896.3320000172</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>502.16799999999984</v>
       </c>
       <c r="C19" s="1">
@@ -12178,12 +12538,15 @@
         <v>-1901436.621999979</v>
       </c>
       <c r="H19" s="1">
+        <v>-2268052.251999855</v>
+      </c>
+      <c r="I19" s="1">
         <v>-4184667.1319999695</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>502.36799999999982</v>
       </c>
       <c r="C20" s="1">
@@ -12202,12 +12565,15 @@
         <v>-1920207.4220001698</v>
       </c>
       <c r="H20" s="1">
+        <v>-2286823.0520000458</v>
+      </c>
+      <c r="I20" s="1">
         <v>-4203437.9320001602</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>502.56799999999981</v>
       </c>
       <c r="C21" s="1">
@@ -12226,12 +12592,15 @@
         <v>-1938978.2220001221</v>
       </c>
       <c r="H21" s="1">
+        <v>-2305593.8519999981</v>
+      </c>
+      <c r="I21" s="1">
         <v>-4222208.7320001125</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>502.7679999999998</v>
       </c>
       <c r="C22" s="1">
@@ -12250,12 +12619,15 @@
         <v>-1957749.0220000744</v>
       </c>
       <c r="H22" s="1">
+        <v>-2324364.6519999504</v>
+      </c>
+      <c r="I22" s="1">
         <v>-4240979.5320000648</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>502.96799999999979</v>
       </c>
       <c r="C23" s="1">
@@ -12274,12 +12646,15 @@
         <v>-1976519.8220000267</v>
       </c>
       <c r="H23" s="1">
+        <v>-2343135.4519999027</v>
+      </c>
+      <c r="I23" s="1">
         <v>-4259750.3320000172</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>503.16799999999978</v>
       </c>
       <c r="C24" s="1">
@@ -12298,12 +12673,15 @@
         <v>-1995290.621999979</v>
       </c>
       <c r="H24" s="1">
+        <v>-2361906.251999855</v>
+      </c>
+      <c r="I24" s="1">
         <v>-4278521.1319999695</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>503.36799999999977</v>
       </c>
       <c r="C25" s="1">
@@ -12322,12 +12700,15 @@
         <v>-2014061.4220001698</v>
       </c>
       <c r="H25" s="1">
+        <v>-2380677.0520000458</v>
+      </c>
+      <c r="I25" s="1">
         <v>-4297291.9320001602</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>503.56799999999976</v>
       </c>
       <c r="C26" s="1">
@@ -12346,12 +12727,15 @@
         <v>-2032832.2220001221</v>
       </c>
       <c r="H26" s="1">
+        <v>-2399447.8519999981</v>
+      </c>
+      <c r="I26" s="1">
         <v>-4316062.7320001125</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>503.76799999999974</v>
       </c>
       <c r="C27" s="1">
@@ -12370,12 +12754,15 @@
         <v>-2051603.0220000744</v>
       </c>
       <c r="H27" s="1">
+        <v>-2418218.6519999504</v>
+      </c>
+      <c r="I27" s="1">
         <v>-4334833.5320000648</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>503.96799999999973</v>
       </c>
       <c r="C28" s="1">
@@ -12394,12 +12781,15 @@
         <v>-2070373.8220000267</v>
       </c>
       <c r="H28" s="1">
+        <v>-2436989.4519999027</v>
+      </c>
+      <c r="I28" s="1">
         <v>-4353604.3320000172</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>504.16799999999972</v>
       </c>
       <c r="C29" s="1">
@@ -12418,12 +12808,15 @@
         <v>-2089144.621999979</v>
       </c>
       <c r="H29" s="1">
+        <v>-2455760.251999855</v>
+      </c>
+      <c r="I29" s="1">
         <v>-4372375.1319999695</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>504.36799999999971</v>
       </c>
       <c r="C30" s="1">
@@ -12442,12 +12835,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H30" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I30" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>504.5679999999997</v>
       </c>
       <c r="C31" s="1">
@@ -12466,12 +12862,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H31" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I31" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>504.76799999999969</v>
       </c>
       <c r="C32" s="1">
@@ -12490,12 +12889,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H32" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I32" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>504.96799999999968</v>
       </c>
       <c r="C33" s="1">
@@ -12514,12 +12916,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H33" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I33" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>505.16799999999967</v>
       </c>
       <c r="C34" s="1">
@@ -12538,12 +12943,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H34" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I34" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>505.36799999999965</v>
       </c>
       <c r="C35" s="1">
@@ -12562,12 +12970,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H35" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I35" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>505.56799999999964</v>
       </c>
       <c r="C36" s="1">
@@ -12586,12 +12997,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H36" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I36" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>505.76799999999963</v>
       </c>
       <c r="C37" s="1">
@@ -12610,12 +13024,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H37" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I37" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>505.96799999999962</v>
       </c>
       <c r="C38" s="1">
@@ -12634,12 +13051,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H38" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I38" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>506.16799999999961</v>
       </c>
       <c r="C39" s="1">
@@ -12658,12 +13078,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H39" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I39" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>506.3679999999996</v>
       </c>
       <c r="C40" s="1">
@@ -12682,12 +13105,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H40" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I40" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>506.56799999999959</v>
       </c>
       <c r="C41" s="1">
@@ -12706,12 +13132,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H41" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I41" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>506.76799999999957</v>
       </c>
       <c r="C42" s="1">
@@ -12730,12 +13159,15 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H42" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I42" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>506.96799999999956</v>
       </c>
       <c r="C43" s="1">
@@ -12754,6 +13186,9 @@
         <v>-2101533.3500001431</v>
       </c>
       <c r="H43" s="1">
+        <v>-2468148.9800000191</v>
+      </c>
+      <c r="I43" s="1">
         <v>-4384763.8600001335</v>
       </c>
     </row>

--- a/Model charts.xlsx
+++ b/Model charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiann\Documents\GitHub\PricingCompetitionAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CAE58F-D221-4337-8BBA-FDE0042CDB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5524DEFD-B3A9-4ED3-8A12-6AAB2F88E3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="699" activeTab="3" xr2:uid="{82970429-080B-475A-BF21-36042436C80F}"/>
+    <workbookView xWindow="3540" yWindow="810" windowWidth="28800" windowHeight="17805" tabRatio="699" activeTab="3" xr2:uid="{82970429-080B-475A-BF21-36042436C80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Exploratory market share" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>RMSE</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Market Share 50%</t>
+  </si>
+  <si>
+    <t>Market Share 60%</t>
   </si>
 </sst>
 </file>
@@ -4726,7 +4729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Market Share 50%</c:v>
+                  <c:v>Market Share 60%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12048,7 +12051,7 @@
   <dimension ref="B2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C2" sqref="C2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12091,7 +12094,7 @@
         <v>Market Share 2.5%</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:H3" si="0">"Market Share "&amp;D2&amp;"%"</f>
+        <f t="shared" ref="D3:F3" si="0">"Market Share "&amp;D2&amp;"%"</f>
         <v>Market Share 5%</v>
       </c>
       <c r="E3" t="str">
@@ -12106,7 +12109,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3" si="1">"Market Share "&amp;I2&amp;"%"</f>
